--- a/90.xlsx
+++ b/90.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
